--- a/docs/hough created.xlsx
+++ b/docs/hough created.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D8F1A-5DDB-4801-83E2-5BAAB8FDA9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92B5CB9-DC93-459C-B322-EE0DDF5FBC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28890" yWindow="90" windowWidth="22335" windowHeight="13830" xr2:uid="{EEFBBBD4-DAC4-4F35-8600-CC9D3F6E2E33}"/>
+    <workbookView xWindow="-25200" yWindow="4170" windowWidth="24015" windowHeight="11100" xr2:uid="{EEFBBBD4-DAC4-4F35-8600-CC9D3F6E2E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>ncols</t>
   </si>
@@ -111,6 +111,39 @@
   </si>
   <si>
     <t>max_y</t>
+  </si>
+  <si>
+    <t>x_range</t>
+  </si>
+  <si>
+    <t>y_range</t>
+  </si>
+  <si>
+    <t>rho_range</t>
+  </si>
+  <si>
+    <t>max_rho</t>
+  </si>
+  <si>
+    <t>min_rho</t>
+  </si>
+  <si>
+    <t>nrhos</t>
+  </si>
+  <si>
+    <t>theta_range</t>
+  </si>
+  <si>
+    <t>nthetas</t>
+  </si>
+  <si>
+    <t>nbins</t>
+  </si>
+  <si>
+    <t>rho_index</t>
+  </si>
+  <si>
+    <t>theta_index</t>
   </si>
 </sst>
 </file>
@@ -396,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -415,7 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -423,6 +455,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944A79A4-ED4E-4E71-8792-EA1E8F7DCD63}">
-  <dimension ref="E5:AL29"/>
+  <dimension ref="E4:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AX22" sqref="AX22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,11 +806,23 @@
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="26" width="4.77734375" customWidth="1"/>
     <col min="27" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="4.77734375" customWidth="1"/>
+    <col min="28" max="34" width="4.77734375" customWidth="1"/>
+    <col min="35" max="36" width="5.33203125" customWidth="1"/>
     <col min="37" max="38" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="3.77734375" customWidth="1"/>
+    <col min="41" max="41" width="6.44140625" customWidth="1"/>
+    <col min="42" max="50" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:47" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="5:47" x14ac:dyDescent="0.3">
       <c r="O5">
         <f t="shared" ref="L5:Z7" si="0">O6-$AB$6+0.5</f>
         <v>-3.5</v>
@@ -806,18 +855,38 @@
         <f t="shared" ref="V5" si="7">V6-$AB$6+0.5</f>
         <v>3.5</v>
       </c>
-      <c r="W5">
-        <f t="shared" ref="W5" si="8">W6-$AB$6+0.5</f>
-        <v>4.5</v>
-      </c>
       <c r="AA5" t="s">
         <v>0</v>
       </c>
       <c r="AB5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="5:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <v>3</v>
+      </c>
+      <c r="AJ5">
+        <v>4</v>
+      </c>
+      <c r="AK5">
+        <v>5</v>
+      </c>
+      <c r="AL5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="5:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O6" s="15">
         <v>0</v>
       </c>
@@ -841,9 +910,6 @@
       </c>
       <c r="V6" s="15">
         <v>7</v>
-      </c>
-      <c r="W6" s="15">
-        <v>8</v>
       </c>
       <c r="AA6" t="s">
         <v>1</v>
@@ -852,7 +918,7 @@
         <f>AB5/2</f>
         <v>4</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AF6">
@@ -877,7 +943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="5:38" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:47" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K7">
         <f>K8-$AB$6+0.5</f>
         <v>-3.5</v>
@@ -945,36 +1011,36 @@
       <c r="AE7" t="s">
         <v>11</v>
       </c>
-      <c r="AF7" s="20">
+      <c r="AF7" s="19">
         <f>AF6*3.14159/180</f>
         <v>0.52359833333333328</v>
       </c>
-      <c r="AG7" s="20">
-        <f t="shared" ref="AG7:AL7" si="9">AG6*3.14159/180</f>
+      <c r="AG7" s="19">
+        <f t="shared" ref="AG7:AL7" si="8">AG6*3.14159/180</f>
         <v>0.61086472222222221</v>
       </c>
-      <c r="AH7" s="20">
-        <f t="shared" si="9"/>
+      <c r="AH7" s="19">
+        <f t="shared" si="8"/>
         <v>0.69813111111111115</v>
       </c>
-      <c r="AI7" s="20">
-        <f t="shared" si="9"/>
+      <c r="AI7" s="19">
+        <f t="shared" si="8"/>
         <v>0.78539749999999997</v>
       </c>
-      <c r="AJ7" s="20">
-        <f t="shared" si="9"/>
+      <c r="AJ7" s="19">
+        <f t="shared" si="8"/>
         <v>0.87266388888888891</v>
       </c>
-      <c r="AK7" s="24">
-        <f t="shared" si="9"/>
+      <c r="AK7" s="23">
+        <f t="shared" si="8"/>
         <v>0.95993027777777784</v>
       </c>
-      <c r="AL7" s="24">
-        <f t="shared" si="9"/>
+      <c r="AL7" s="23">
+        <f t="shared" si="8"/>
         <v>1.0471966666666666</v>
       </c>
     </row>
-    <row r="8" spans="5:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:47" x14ac:dyDescent="0.3">
       <c r="K8">
         <v>0</v>
       </c>
@@ -1031,31 +1097,31 @@
         <v>0.86602562491683677</v>
       </c>
       <c r="AG8">
-        <f t="shared" ref="AG8:AL8" si="10">COS(AG7)</f>
+        <f t="shared" ref="AG8:AL8" si="9">COS(AG7)</f>
         <v>0.81915234024043937</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.76604482216209824</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.70710725027922627</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.64278817434406343</v>
       </c>
-      <c r="AK8" s="21">
-        <f t="shared" si="10"/>
+      <c r="AK8" s="20">
+        <f t="shared" si="9"/>
         <v>0.57357710053498367</v>
       </c>
-      <c r="AL8" s="21">
-        <f t="shared" si="10"/>
+      <c r="AL8" s="20">
+        <f t="shared" si="9"/>
         <v>0.50000076602519528</v>
       </c>
     </row>
-    <row r="9" spans="5:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:47" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>2</v>
       </c>
@@ -1088,36 +1154,60 @@
       <c r="AE9" t="s">
         <v>10</v>
       </c>
-      <c r="AF9" s="20">
+      <c r="AF9" s="19">
         <f>SIN(AF7)</f>
         <v>0.4999996169872557</v>
       </c>
-      <c r="AG9" s="20">
-        <f t="shared" ref="AG9:AL9" si="11">SIN(AG7)</f>
+      <c r="AG9" s="19">
+        <f t="shared" ref="AG9:AL9" si="10">SIN(AG7)</f>
         <v>0.57357601368834399</v>
       </c>
-      <c r="AH9" s="20">
-        <f t="shared" si="11"/>
+      <c r="AH9" s="19">
+        <f t="shared" si="10"/>
         <v>0.64278715796026864</v>
       </c>
-      <c r="AI9" s="20">
-        <f t="shared" si="11"/>
+      <c r="AI9" s="19">
+        <f t="shared" si="10"/>
         <v>0.70710631209355757</v>
       </c>
-      <c r="AJ9" s="20">
-        <f t="shared" si="11"/>
+      <c r="AJ9" s="19">
+        <f t="shared" si="10"/>
         <v>0.7660439693147032</v>
       </c>
-      <c r="AK9" s="24">
-        <f t="shared" si="11"/>
+      <c r="AK9" s="23">
+        <f t="shared" si="10"/>
         <v>0.81915157922199067</v>
       </c>
-      <c r="AL9" s="24">
-        <f t="shared" si="11"/>
+      <c r="AL9" s="23">
+        <f t="shared" si="10"/>
         <v>0.86602496151913422</v>
       </c>
-    </row>
-    <row r="10" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="AN9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>2</v>
+      </c>
+      <c r="AR9">
+        <v>3</v>
+      </c>
+      <c r="AS9">
+        <v>4</v>
+      </c>
+      <c r="AT9">
+        <v>5</v>
+      </c>
+      <c r="AU9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="5:47" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="G10:I24" si="12">$F$10-J10-0.5</f>
+        <f t="shared" ref="G10:I24" si="11">$F$10-J10-0.5</f>
         <v>2.5</v>
       </c>
       <c r="J10">
@@ -1148,31 +1238,34 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AB10" s="20" t="s">
+      <c r="AB10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AC10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="25" t="s">
+      <c r="AD10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AE10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AF10" s="25" t="s">
+      <c r="AF10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-    </row>
-    <row r="11" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AN10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="5:47" x14ac:dyDescent="0.3">
       <c r="I11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="J11">
@@ -1195,51 +1288,79 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AB11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>9</v>
-      </c>
-      <c r="AD11" s="23">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="22">
         <f>AB11-$AB$6+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="AE11" s="22">
+        <v>-3.5</v>
+      </c>
+      <c r="AE11" s="21">
         <f>$F$10-AC11-0.5</f>
-        <v>-5.5</v>
-      </c>
-      <c r="AF11" s="23">
-        <f>AD11*AF$8+AE11*AF$9</f>
-        <v>-2.316985080971488</v>
-      </c>
-      <c r="AG11" s="23">
-        <f t="shared" ref="AG11:AL16" si="13">AE11*AG$8+AF11*AG$9</f>
-        <v>-5.8343049378414076</v>
-      </c>
-      <c r="AH11" s="23">
-        <f t="shared" si="13"/>
-        <v>-5.5251307139736783</v>
-      </c>
-      <c r="AI11" s="23">
-        <f t="shared" si="13"/>
-        <v>-8.0323341248803217</v>
-      </c>
-      <c r="AJ11" s="23">
-        <f t="shared" si="13"/>
-        <v>-9.704609800532717</v>
-      </c>
-      <c r="AK11" s="23">
-        <f t="shared" si="13"/>
-        <v>-12.556709361716642</v>
-      </c>
-      <c r="AL11" s="23">
-        <f t="shared" si="13"/>
-        <v>-15.726736076029583</v>
-      </c>
-    </row>
-    <row r="12" spans="5:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+      <c r="AF11" s="22">
+        <f>$AD11*AF$8+$AE11*AF$9</f>
+        <v>-2.2810902617280453</v>
+      </c>
+      <c r="AG11" s="22">
+        <f t="shared" ref="AG11:AL16" si="12">$AD11*AG$8+$AE11*AG$9</f>
+        <v>-2.0066691703090216</v>
+      </c>
+      <c r="AH11" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.7169761406269408</v>
+      </c>
+      <c r="AI11" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4142159078369556</v>
+      </c>
+      <c r="AJ11" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.1006926562321673</v>
+      </c>
+      <c r="AK11" s="22">
+        <f t="shared" si="12"/>
+        <v>-0.77879248303945703</v>
+      </c>
+      <c r="AL11" s="22">
+        <f t="shared" si="12"/>
+        <v>-0.45096523880948203</v>
+      </c>
+      <c r="AO11">
+        <f>ROUND(20*(AF11-$AK$22)/$AD$21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" ref="AP11:AP16" si="13">ROUND(20*(AG11-$AK$22)/$AD$21,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" ref="AQ11:AQ16" si="14">ROUND(20*(AH11-$AK$22)/$AD$21,0)</f>
+        <v>11</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" ref="AR11:AR16" si="15">ROUND(20*(AI11-$AK$22)/$AD$21,0)</f>
+        <v>17</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" ref="AS11:AS16" si="16">ROUND(20*(AJ11-$AK$22)/$AD$21,0)</f>
+        <v>24</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" ref="AT11:AT16" si="17">ROUND(20*(AK11-$AK$22)/$AD$21,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" ref="AU11:AU16" si="18">ROUND(20*(AL11-$AK$22)/$AD$21,0)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="5:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="J12">
@@ -1262,51 +1383,80 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AB12">
-        <f>AB11+1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <f>AC11-1</f>
-        <v>8</v>
-      </c>
-      <c r="AD12" s="23">
-        <f t="shared" ref="AD12:AD16" si="14">AB12-$AB$6+0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="AE12" s="22">
-        <f t="shared" ref="AE12:AE16" si="15">$F$10-AC12-0.5</f>
-        <v>-4.5</v>
-      </c>
-      <c r="AF12" s="23">
-        <f t="shared" ref="AF12:AF16" si="16">AD12*AF$8+AE12*AF$9</f>
-        <v>-0.95095983906739567</v>
-      </c>
-      <c r="AG12" s="23">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="22">
+        <f t="shared" ref="AD12:AD16" si="19">AB12-$AB$6+0.5</f>
+        <v>-2.5</v>
+      </c>
+      <c r="AE12" s="21">
+        <f t="shared" ref="AE12:AE16" si="20">$F$10-AC12-0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="AF12" s="22">
+        <f t="shared" ref="AF12:AL16" si="21">$AD12*AF$8+$AE12*AF$9</f>
+        <v>-1.9150642537984641</v>
+      </c>
+      <c r="AG12" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.7610928437569267</v>
+      </c>
+      <c r="AH12" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.5937184764251113</v>
+      </c>
+      <c r="AI12" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4142149696512869</v>
+      </c>
+      <c r="AJ12" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.2239484512028072</v>
+      </c>
+      <c r="AK12" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.0243669617264639</v>
+      </c>
+      <c r="AL12" s="22">
+        <f t="shared" si="12"/>
+        <v>-0.81698943430342108</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" ref="AO12:AO16" si="22">ROUND(20*(AF12-$AK$22)/$AD$21,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AP12">
         <f t="shared" si="13"/>
-        <v>-4.2316332847519629</v>
-      </c>
-      <c r="AH12" s="23">
-        <f t="shared" si="13"/>
-        <v>-3.4485173934374709</v>
-      </c>
-      <c r="AI12" s="23">
-        <f t="shared" si="13"/>
-        <v>-5.4306869924350689</v>
-      </c>
-      <c r="AJ12" s="23">
-        <f t="shared" si="13"/>
-        <v>-6.376811219312108</v>
-      </c>
-      <c r="AK12" s="23">
-        <f t="shared" si="13"/>
-        <v>-8.338492679733978</v>
-      </c>
-      <c r="AL12" s="23">
-        <f t="shared" si="13"/>
-        <v>-10.409753296548313</v>
-      </c>
-    </row>
-    <row r="13" spans="5:38" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="5:47" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
       <c r="G13">
         <f>$F$10-H13-0.5</f>
         <v>3.5</v>
@@ -1315,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.5</v>
       </c>
       <c r="J13">
@@ -1330,7 +1480,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="18"/>
+      <c r="T13" s="29"/>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
       <c r="W13" s="3"/>
@@ -1338,60 +1488,86 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AB13">
-        <f t="shared" ref="AB13:AB15" si="17">AB12+1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC13">
-        <f t="shared" ref="AC13:AC16" si="18">AC12-1</f>
-        <v>7</v>
-      </c>
-      <c r="AD13" s="23">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="22">
+        <f t="shared" si="19"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE13" s="21">
+        <f t="shared" si="20"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF13" s="22">
+        <f t="shared" si="21"/>
+        <v>-1.5490382458688829</v>
+      </c>
+      <c r="AG13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.515516517204831</v>
+      </c>
+      <c r="AH13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4704608122232816</v>
+      </c>
+      <c r="AI13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4142140314656182</v>
+      </c>
+      <c r="AJ13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.3472042461734466</v>
+      </c>
+      <c r="AK13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.2699414404134708</v>
+      </c>
+      <c r="AL13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.1830136297973599</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="AQ13">
         <f t="shared" si="14"/>
-        <v>2.5</v>
-      </c>
-      <c r="AE13" s="22">
+        <v>16</v>
+      </c>
+      <c r="AR13">
         <f t="shared" si="15"/>
-        <v>-3.5</v>
-      </c>
-      <c r="AF13" s="23">
+        <v>17</v>
+      </c>
+      <c r="AS13">
         <f t="shared" si="16"/>
-        <v>0.41506540283669713</v>
-      </c>
-      <c r="AG13" s="23">
-        <f t="shared" si="13"/>
-        <v>-2.6289616316625186</v>
-      </c>
-      <c r="AH13" s="23">
-        <f t="shared" si="13"/>
-        <v>-1.3719040729012637</v>
-      </c>
-      <c r="AI13" s="23">
-        <f t="shared" si="13"/>
-        <v>-2.8290398599898152</v>
-      </c>
-      <c r="AJ13" s="23">
-        <f t="shared" si="13"/>
-        <v>-3.0490126380914981</v>
-      </c>
-      <c r="AK13" s="23">
-        <f t="shared" si="13"/>
-        <v>-4.120275997751313</v>
-      </c>
-      <c r="AL13" s="23">
-        <f t="shared" si="13"/>
-        <v>-5.0927705170670432</v>
-      </c>
-    </row>
-    <row r="14" spans="5:38" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="5:47" x14ac:dyDescent="0.3">
       <c r="G14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="H14" s="14">
         <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.5</v>
       </c>
       <c r="J14">
@@ -1405,7 +1581,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="17"/>
+      <c r="S14" s="28"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="10"/>
@@ -1414,60 +1590,86 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AB14">
+        <v>3</v>
+      </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="22">
+        <f t="shared" si="19"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AE14" s="21">
+        <f t="shared" si="20"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AF14" s="22">
+        <f t="shared" si="21"/>
+        <v>-1.1830122379393018</v>
+      </c>
+      <c r="AG14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.2699401906527357</v>
+      </c>
+      <c r="AH14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.3472031480214521</v>
+      </c>
+      <c r="AI14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4142130932799495</v>
+      </c>
+      <c r="AJ14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4704600411440867</v>
+      </c>
+      <c r="AK14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.5155159191004779</v>
+      </c>
+      <c r="AL14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.5490378252912991</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="AT14">
         <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="AC14">
+        <v>15</v>
+      </c>
+      <c r="AU14">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="AD14" s="23">
-        <f t="shared" si="14"/>
-        <v>3.5</v>
-      </c>
-      <c r="AE14" s="22">
-        <f t="shared" si="15"/>
-        <v>-2.5</v>
-      </c>
-      <c r="AF14" s="23">
-        <f t="shared" si="16"/>
-        <v>1.7810906447407893</v>
-      </c>
-      <c r="AG14" s="23">
-        <f t="shared" si="13"/>
-        <v>-1.0262899785730741</v>
-      </c>
-      <c r="AH14" s="23">
-        <f t="shared" si="13"/>
-        <v>0.70470924763494336</v>
-      </c>
-      <c r="AI14" s="23">
-        <f t="shared" si="13"/>
-        <v>-0.22739272754456208</v>
-      </c>
-      <c r="AJ14" s="23">
-        <f t="shared" si="13"/>
-        <v>0.27878594312911054</v>
-      </c>
-      <c r="AK14" s="23">
-        <f t="shared" si="13"/>
-        <v>9.7940684231351549E-2</v>
-      </c>
-      <c r="AL14" s="23">
-        <f t="shared" si="13"/>
-        <v>0.2242122624142257</v>
-      </c>
-    </row>
-    <row r="15" spans="5:38" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="5:47" x14ac:dyDescent="0.3">
       <c r="G15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="H15" s="14">
         <v>2</v>
       </c>
       <c r="I15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.5</v>
       </c>
       <c r="J15">
@@ -1477,10 +1679,10 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="9"/>
+      <c r="O15" s="16"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="17"/>
+      <c r="R15" s="28"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1490,60 +1692,86 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="22">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE15" s="21">
+        <f t="shared" si="20"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AF15" s="22">
+        <f t="shared" si="21"/>
+        <v>-0.81698623000972093</v>
+      </c>
+      <c r="AG15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.0243638641006403</v>
+      </c>
+      <c r="AH15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.2239454838196224</v>
+      </c>
+      <c r="AI15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4142121550942808</v>
+      </c>
+      <c r="AJ15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.5937158361147261</v>
+      </c>
+      <c r="AK15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.7610903977874848</v>
+      </c>
+      <c r="AL15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.9150620207852378</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="22"/>
+        <v>29</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="AT15">
         <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-      <c r="AC15">
+        <v>10</v>
+      </c>
+      <c r="AU15">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AD15" s="23">
-        <f t="shared" si="14"/>
-        <v>4.5</v>
-      </c>
-      <c r="AE15" s="22">
-        <f t="shared" si="15"/>
-        <v>-1.5</v>
-      </c>
-      <c r="AF15" s="23">
-        <f t="shared" si="16"/>
-        <v>3.1471158866448823</v>
-      </c>
-      <c r="AG15" s="23">
-        <f t="shared" si="13"/>
-        <v>0.57638167451637079</v>
-      </c>
-      <c r="AH15" s="23">
-        <f t="shared" si="13"/>
-        <v>2.7813225681711518</v>
-      </c>
-      <c r="AI15" s="23">
-        <f t="shared" si="13"/>
-        <v>2.3742544049006926</v>
-      </c>
-      <c r="AJ15" s="23">
-        <f t="shared" si="13"/>
-        <v>3.6065845243497217</v>
-      </c>
-      <c r="AK15" s="23">
-        <f t="shared" si="13"/>
-        <v>4.3161573662140187</v>
-      </c>
-      <c r="AL15" s="23">
-        <f t="shared" si="13"/>
-        <v>5.5411950418954987</v>
-      </c>
-    </row>
-    <row r="16" spans="5:38" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="5:47" x14ac:dyDescent="0.3">
       <c r="G16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="H16" s="14">
         <v>3</v>
       </c>
       <c r="I16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-3.5</v>
       </c>
       <c r="J16">
@@ -1554,8 +1782,8 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="28"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1567,59 +1795,86 @@
       <c r="Z16" s="1"/>
       <c r="AB16">
         <f>AB15+1</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AC16">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="22">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE16" s="21">
+        <f t="shared" si="20"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AF16" s="22">
+        <f t="shared" si="21"/>
+        <v>-0.45096022208013986</v>
+      </c>
+      <c r="AG16" s="22">
+        <f t="shared" si="12"/>
+        <v>-0.77878753754854491</v>
+      </c>
+      <c r="AH16" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.1006878196177927</v>
+      </c>
+      <c r="AI16" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4142112169086121</v>
+      </c>
+      <c r="AJ16" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.7169716310853662</v>
+      </c>
+      <c r="AK16" s="22">
+        <f t="shared" si="12"/>
+        <v>-2.0066648764744919</v>
+      </c>
+      <c r="AL16" s="22">
+        <f t="shared" si="12"/>
+        <v>-2.281086216279177</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="22"/>
+        <v>37</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AU16">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="AD16" s="23">
-        <f t="shared" si="14"/>
-        <v>5.5</v>
-      </c>
-      <c r="AE16" s="22">
-        <f t="shared" si="15"/>
-        <v>-0.5</v>
-      </c>
-      <c r="AF16" s="23">
-        <f t="shared" si="16"/>
-        <v>4.5131411285489751</v>
-      </c>
-      <c r="AG16" s="23">
-        <f t="shared" si="13"/>
-        <v>2.1790533276058155</v>
-      </c>
-      <c r="AH16" s="23">
-        <f t="shared" si="13"/>
-        <v>4.8579358887073596</v>
-      </c>
-      <c r="AI16" s="23">
-        <f t="shared" si="13"/>
-        <v>4.9759015373459459</v>
-      </c>
-      <c r="AJ16" s="23">
-        <f t="shared" si="13"/>
-        <v>6.9343831055703316</v>
-      </c>
-      <c r="AK16" s="23">
-        <f t="shared" si="13"/>
-        <v>8.5343740481966837</v>
-      </c>
-      <c r="AL16" s="23">
-        <f t="shared" si="13"/>
-        <v>10.858177821376769</v>
-      </c>
-    </row>
-    <row r="17" spans="7:33" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:47" x14ac:dyDescent="0.3">
       <c r="G17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.5</v>
       </c>
       <c r="H17" s="14">
         <v>4</v>
       </c>
       <c r="I17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4.5</v>
       </c>
       <c r="J17">
@@ -1630,8 +1885,8 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="1"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="17"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1642,16 +1897,16 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="7:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:47" x14ac:dyDescent="0.3">
       <c r="G18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.5</v>
       </c>
       <c r="H18" s="14">
         <v>5</v>
       </c>
       <c r="I18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.5</v>
       </c>
       <c r="J18">
@@ -1661,10 +1916,10 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="16"/>
+      <c r="O18" s="27"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1679,17 +1934,27 @@
       <c r="AD18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="AI18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK18" s="25">
+        <f>AG24-AG22</f>
+        <v>7</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:47" x14ac:dyDescent="0.3">
       <c r="G19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.5</v>
       </c>
       <c r="H19" s="14">
         <v>6</v>
       </c>
       <c r="I19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-6.5</v>
       </c>
       <c r="J19">
@@ -1703,7 +1968,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="S19" s="17"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="10"/>
@@ -1717,17 +1982,30 @@
       <c r="AD19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="7:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AI19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK19" s="21">
+        <f>AG25-AG23</f>
+        <v>-7</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
       <c r="G20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-3.5</v>
       </c>
       <c r="H20" s="14">
         <v>7</v>
       </c>
       <c r="I20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-7.5</v>
       </c>
       <c r="J20">
@@ -1742,7 +2020,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="T20" s="26"/>
       <c r="U20" s="12"/>
       <c r="V20" s="13"/>
       <c r="W20" s="3"/>
@@ -1753,19 +2031,22 @@
         <v>15</v>
       </c>
       <c r="AD20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="7:33" x14ac:dyDescent="0.3">
-      <c r="G21">
-        <f t="shared" si="12"/>
-        <v>-4.5</v>
-      </c>
-      <c r="H21" s="14">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK20" s="21">
+        <f>AK21-AK22</f>
+        <v>1.8301209774696949</v>
+      </c>
+      <c r="AN20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:47" x14ac:dyDescent="0.3">
       <c r="I21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-8.5</v>
       </c>
       <c r="J21">
@@ -1793,10 +2074,23 @@
       <c r="AD21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="AI21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK21" s="21">
+        <f>AL11</f>
+        <v>-0.45096523880948203</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AU21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:47" x14ac:dyDescent="0.3">
       <c r="I22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-9.5</v>
       </c>
       <c r="J22">
@@ -1822,19 +2116,35 @@
         <v>17</v>
       </c>
       <c r="AD22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="s">
         <v>21</v>
       </c>
-      <c r="AG22" s="22">
+      <c r="AG22" s="21">
         <f>0-$AD$28+0.5</f>
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="23" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="AI22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK22" s="21">
+        <f>AL16</f>
+        <v>-2.281086216279177</v>
+      </c>
+      <c r="AN22">
+        <v>4</v>
+      </c>
+      <c r="AT22">
+        <v>1</v>
+      </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:47" x14ac:dyDescent="0.3">
       <c r="I23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-10.5</v>
       </c>
       <c r="J23">
@@ -1860,19 +2170,38 @@
         <v>18</v>
       </c>
       <c r="AD23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="s">
         <v>22</v>
       </c>
-      <c r="AG23" s="22">
+      <c r="AG23" s="21">
         <f>$AD$29-0-0.5</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="24" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="AI23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK23">
+        <f>20*AK20/AD21</f>
+        <v>36.6024195493939</v>
+      </c>
+      <c r="AN23">
+        <v>5</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>2</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:47" x14ac:dyDescent="0.3">
       <c r="I24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-11.5</v>
       </c>
       <c r="J24">
@@ -1898,32 +2227,79 @@
         <v>19</v>
       </c>
       <c r="AD24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="s">
         <v>23</v>
       </c>
-      <c r="AG24" s="22">
+      <c r="AG24" s="21">
         <f>$AD$26-1-$AD$28+0.5</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="25" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="AI24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK24">
+        <f>AD19-AD18</f>
+        <v>30</v>
+      </c>
+      <c r="AN24">
+        <v>6</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
+        <v>2</v>
+      </c>
+      <c r="AT24">
+        <v>1</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:47" x14ac:dyDescent="0.3">
       <c r="AB25" t="s">
         <v>20</v>
       </c>
       <c r="AD25">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="s">
         <v>24</v>
       </c>
-      <c r="AG25" s="22">
+      <c r="AG25" s="21">
         <f>$AD$29-(AD27-1)-0.5</f>
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="26" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="AI25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK25">
+        <f>AK24/AD20+1</f>
+        <v>7</v>
+      </c>
+      <c r="AN25">
+        <v>7</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AR25">
+        <v>2</v>
+      </c>
+      <c r="AS25">
+        <v>2</v>
+      </c>
+      <c r="AT25">
+        <v>2</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:47" x14ac:dyDescent="0.3">
       <c r="AB26" t="s">
         <v>0</v>
       </c>
@@ -1931,8 +2307,33 @@
         <f>AD24-AD22+1</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="AI26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK26">
+        <f>AK23*AK25</f>
+        <v>256.21693684575729</v>
+      </c>
+      <c r="AN26">
+        <v>8</v>
+      </c>
+      <c r="AO26">
+        <v>3</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>6</v>
+      </c>
+      <c r="AR26">
+        <v>2</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:47" x14ac:dyDescent="0.3">
       <c r="AB27" t="s">
         <v>2</v>
       </c>
@@ -1940,23 +2341,89 @@
         <f>AD25-AD23+1</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="AN27">
+        <v>9</v>
+      </c>
+      <c r="AO27">
+        <v>3</v>
+      </c>
+      <c r="AP27">
+        <v>2</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:47" x14ac:dyDescent="0.3">
       <c r="AB28" t="s">
         <v>1</v>
       </c>
-      <c r="AD28" s="22">
+      <c r="AD28" s="21">
         <f>AD26/2</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="AN28">
+        <v>10</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:47" x14ac:dyDescent="0.3">
       <c r="AB29" t="s">
         <v>3</v>
       </c>
-      <c r="AD29" s="22">
+      <c r="AD29" s="21">
         <f>AD27/2</f>
         <v>4</v>
+      </c>
+      <c r="AN29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="5:47" x14ac:dyDescent="0.3">
+      <c r="AN30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="5:47" x14ac:dyDescent="0.3">
+      <c r="AN31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="5:47" x14ac:dyDescent="0.3">
+      <c r="AN32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN38">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/hough created.xlsx
+++ b/docs/hough created.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92B5CB9-DC93-459C-B322-EE0DDF5FBC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F22822-3339-4162-AF84-72DF3EA939F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="4170" windowWidth="24015" windowHeight="11100" xr2:uid="{EEFBBBD4-DAC4-4F35-8600-CC9D3F6E2E33}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{EEFBBBD4-DAC4-4F35-8600-CC9D3F6E2E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -455,11 +455,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,7 +794,7 @@
   <dimension ref="E4:AU38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AX22" sqref="AX22"/>
+      <selection activeCell="AK24" sqref="AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,33 +1326,33 @@
         <f t="shared" si="12"/>
         <v>-0.45096523880948203</v>
       </c>
-      <c r="AO11">
-        <f>ROUND(20*(AF11-$AK$22)/$AD$21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <f t="shared" ref="AP11:AP16" si="13">ROUND(20*(AG11-$AK$22)/$AD$21,0)</f>
-        <v>5</v>
-      </c>
-      <c r="AQ11">
-        <f t="shared" ref="AQ11:AQ16" si="14">ROUND(20*(AH11-$AK$22)/$AD$21,0)</f>
-        <v>11</v>
-      </c>
-      <c r="AR11">
-        <f t="shared" ref="AR11:AR16" si="15">ROUND(20*(AI11-$AK$22)/$AD$21,0)</f>
-        <v>17</v>
-      </c>
-      <c r="AS11">
-        <f t="shared" ref="AS11:AS16" si="16">ROUND(20*(AJ11-$AK$22)/$AD$21,0)</f>
-        <v>24</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" ref="AT11:AT16" si="17">ROUND(20*(AK11-$AK$22)/$AD$21,0)</f>
-        <v>30</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" ref="AU11:AU16" si="18">ROUND(20*(AL11-$AK$22)/$AD$21,0)</f>
-        <v>37</v>
+      <c r="AO11" s="26">
+        <f t="shared" ref="AO11:AO16" si="13">$AK$23*(AF11-$AK$22)/$AK$20</f>
+        <v>-2.2104756072326986E-5</v>
+      </c>
+      <c r="AP11" s="26">
+        <f t="shared" ref="AP11:AP16" si="14">$AK$23*(AG11-$AK$22)/$AK$20</f>
+        <v>1.49944346367396</v>
+      </c>
+      <c r="AQ11" s="26">
+        <f t="shared" ref="AQ11:AQ16" si="15">$AK$23*(AH11-$AK$22)/$AK$20</f>
+        <v>3.0823565013572818</v>
+      </c>
+      <c r="AR11" s="26">
+        <f t="shared" ref="AR11:AR16" si="16">$AK$23*(AI11-$AK$22)/$AK$20</f>
+        <v>4.7366701046263815</v>
+      </c>
+      <c r="AS11" s="26">
+        <f t="shared" ref="AS11:AS16" si="17">$AK$23*(AJ11-$AK$22)/$AK$20</f>
+        <v>6.4497939693141966</v>
+      </c>
+      <c r="AT11" s="26">
+        <f t="shared" ref="AT11:AT16" si="18">$AK$23*(AK11-$AK$22)/$AK$20</f>
+        <v>8.2086902104092871</v>
+      </c>
+      <c r="AU11" s="26">
+        <f t="shared" ref="AU11:AU16" si="19">$AK$23*(AL11-$AK$22)/$AK$20</f>
+        <v>9.9999725880657504</v>
       </c>
     </row>
     <row r="12" spans="5:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1389,15 +1386,15 @@
         <v>3</v>
       </c>
       <c r="AD12" s="22">
-        <f t="shared" ref="AD12:AD16" si="19">AB12-$AB$6+0.5</f>
+        <f t="shared" ref="AD12:AD16" si="20">AB12-$AB$6+0.5</f>
         <v>-2.5</v>
       </c>
       <c r="AE12" s="21">
-        <f t="shared" ref="AE12:AE16" si="20">$F$10-AC12-0.5</f>
+        <f t="shared" ref="AE12:AE16" si="21">$F$10-AC12-0.5</f>
         <v>0.5</v>
       </c>
       <c r="AF12" s="22">
-        <f t="shared" ref="AF12:AL16" si="21">$AD12*AF$8+$AE12*AF$9</f>
+        <f t="shared" ref="AF12:AF16" si="22">$AD12*AF$8+$AE12*AF$9</f>
         <v>-1.9150642537984641</v>
       </c>
       <c r="AG12" s="22">
@@ -1424,33 +1421,33 @@
         <f t="shared" si="12"/>
         <v>-0.81698943430342108</v>
       </c>
-      <c r="AO12">
-        <f t="shared" ref="AO12:AO16" si="22">ROUND(20*(AF12-$AK$22)/$AD$21,0)</f>
-        <v>7</v>
-      </c>
-      <c r="AP12">
+      <c r="AO12" s="26">
         <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="AQ12">
+        <v>1.9999823161951427</v>
+      </c>
+      <c r="AP12" s="26">
         <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="AR12">
+        <v>2.8412982175570254</v>
+      </c>
+      <c r="AQ12" s="26">
         <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="AS12">
+        <v>3.7558492805021069</v>
+      </c>
+      <c r="AR12" s="26">
         <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="AT12">
+        <v>4.7366752309710796</v>
+      </c>
+      <c r="AS12" s="26">
         <f t="shared" si="17"/>
-        <v>25</v>
-      </c>
-      <c r="AU12">
+        <v>5.776311403844252</v>
+      </c>
+      <c r="AT12" s="26">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>6.8668455534544881</v>
+      </c>
+      <c r="AU12" s="26">
+        <f t="shared" si="19"/>
+        <v>7.9999780704525989</v>
       </c>
     </row>
     <row r="13" spans="5:47" x14ac:dyDescent="0.3">
@@ -1480,7 +1477,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="29"/>
+      <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
       <c r="W13" s="3"/>
@@ -1494,68 +1491,68 @@
         <v>4</v>
       </c>
       <c r="AD13" s="22">
+        <f t="shared" si="20"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE13" s="21">
+        <f t="shared" si="21"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AF13" s="22">
+        <f t="shared" si="22"/>
+        <v>-1.5490382458688829</v>
+      </c>
+      <c r="AG13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.515516517204831</v>
+      </c>
+      <c r="AH13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4704608122232816</v>
+      </c>
+      <c r="AI13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4142140314656182</v>
+      </c>
+      <c r="AJ13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.3472042461734466</v>
+      </c>
+      <c r="AK13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.2699414404134708</v>
+      </c>
+      <c r="AL13" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.1830136297973599</v>
+      </c>
+      <c r="AO13" s="26">
+        <f t="shared" si="13"/>
+        <v>3.9999867371463576</v>
+      </c>
+      <c r="AP13" s="26">
+        <f t="shared" si="14"/>
+        <v>4.1831529714400943</v>
+      </c>
+      <c r="AQ13" s="26">
+        <f t="shared" si="15"/>
+        <v>4.4293420596469328</v>
+      </c>
+      <c r="AR13" s="26">
+        <f t="shared" si="16"/>
+        <v>4.7366803573157776</v>
+      </c>
+      <c r="AS13" s="26">
+        <f t="shared" si="17"/>
+        <v>5.102828838374311</v>
+      </c>
+      <c r="AT13" s="26">
+        <f t="shared" si="18"/>
+        <v>5.5250008964996873</v>
+      </c>
+      <c r="AU13" s="26">
         <f t="shared" si="19"/>
-        <v>-1.5</v>
-      </c>
-      <c r="AE13" s="21">
-        <f t="shared" si="20"/>
-        <v>-0.5</v>
-      </c>
-      <c r="AF13" s="22">
-        <f t="shared" si="21"/>
-        <v>-1.5490382458688829</v>
-      </c>
-      <c r="AG13" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.515516517204831</v>
-      </c>
-      <c r="AH13" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.4704608122232816</v>
-      </c>
-      <c r="AI13" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.4142140314656182</v>
-      </c>
-      <c r="AJ13" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.3472042461734466</v>
-      </c>
-      <c r="AK13" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.2699414404134708</v>
-      </c>
-      <c r="AL13" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.1830136297973599</v>
-      </c>
-      <c r="AO13">
-        <f t="shared" si="22"/>
-        <v>15</v>
-      </c>
-      <c r="AP13">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="17"/>
-        <v>20</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="18"/>
-        <v>22</v>
+        <v>5.999983552839451</v>
       </c>
     </row>
     <row r="14" spans="5:47" x14ac:dyDescent="0.3">
@@ -1581,7 +1578,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="28"/>
+      <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="10"/>
@@ -1596,68 +1593,68 @@
         <v>5</v>
       </c>
       <c r="AD14" s="22">
+        <f t="shared" si="20"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AE14" s="21">
+        <f t="shared" si="21"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AF14" s="22">
+        <f t="shared" si="22"/>
+        <v>-1.1830122379393018</v>
+      </c>
+      <c r="AG14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.2699401906527357</v>
+      </c>
+      <c r="AH14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.3472031480214521</v>
+      </c>
+      <c r="AI14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4142130932799495</v>
+      </c>
+      <c r="AJ14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4704600411440867</v>
+      </c>
+      <c r="AK14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.5155159191004779</v>
+      </c>
+      <c r="AL14" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.5490378252912991</v>
+      </c>
+      <c r="AO14" s="26">
+        <f t="shared" si="13"/>
+        <v>5.9999911580975729</v>
+      </c>
+      <c r="AP14" s="26">
+        <f t="shared" si="14"/>
+        <v>5.5250077253231629</v>
+      </c>
+      <c r="AQ14" s="26">
+        <f t="shared" si="15"/>
+        <v>5.1028348387917575</v>
+      </c>
+      <c r="AR14" s="26">
+        <f t="shared" si="16"/>
+        <v>4.7366854836604757</v>
+      </c>
+      <c r="AS14" s="26">
+        <f t="shared" si="17"/>
+        <v>4.4293462729043664</v>
+      </c>
+      <c r="AT14" s="26">
+        <f t="shared" si="18"/>
+        <v>4.1831562395448865</v>
+      </c>
+      <c r="AU14" s="26">
         <f t="shared" si="19"/>
-        <v>-0.5</v>
-      </c>
-      <c r="AE14" s="21">
-        <f t="shared" si="20"/>
-        <v>-1.5</v>
-      </c>
-      <c r="AF14" s="22">
-        <f t="shared" si="21"/>
-        <v>-1.1830122379393018</v>
-      </c>
-      <c r="AG14" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.2699401906527357</v>
-      </c>
-      <c r="AH14" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.3472031480214521</v>
-      </c>
-      <c r="AI14" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.4142130932799495</v>
-      </c>
-      <c r="AJ14" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.4704600411440867</v>
-      </c>
-      <c r="AK14" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.5155159191004779</v>
-      </c>
-      <c r="AL14" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.5490378252912991</v>
-      </c>
-      <c r="AO14">
-        <f t="shared" si="22"/>
-        <v>22</v>
-      </c>
-      <c r="AP14">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <v>3.9999890352262994</v>
       </c>
     </row>
     <row r="15" spans="5:47" x14ac:dyDescent="0.3">
@@ -1682,7 +1679,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="28"/>
+      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1698,68 +1695,68 @@
         <v>6</v>
       </c>
       <c r="AD15" s="22">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE15" s="21">
+        <f t="shared" si="21"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AF15" s="22">
+        <f t="shared" si="22"/>
+        <v>-0.81698623000972093</v>
+      </c>
+      <c r="AG15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.0243638641006403</v>
+      </c>
+      <c r="AH15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.2239454838196224</v>
+      </c>
+      <c r="AI15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4142121550942808</v>
+      </c>
+      <c r="AJ15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.5937158361147261</v>
+      </c>
+      <c r="AK15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.7610903977874848</v>
+      </c>
+      <c r="AL15" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.9150620207852378</v>
+      </c>
+      <c r="AO15" s="26">
+        <f t="shared" si="13"/>
+        <v>7.9999955790487851</v>
+      </c>
+      <c r="AP15" s="26">
+        <f t="shared" si="14"/>
+        <v>6.8668624792062305</v>
+      </c>
+      <c r="AQ15" s="26">
+        <f t="shared" si="15"/>
+        <v>5.7763276179365839</v>
+      </c>
+      <c r="AR15" s="26">
+        <f t="shared" si="16"/>
+        <v>4.7366906100051738</v>
+      </c>
+      <c r="AS15" s="26">
+        <f t="shared" si="17"/>
+        <v>3.7558637074344245</v>
+      </c>
+      <c r="AT15" s="26">
+        <f t="shared" si="18"/>
+        <v>2.8413115825900865</v>
+      </c>
+      <c r="AU15" s="26">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="AE15" s="21">
-        <f t="shared" si="20"/>
-        <v>-2.5</v>
-      </c>
-      <c r="AF15" s="22">
-        <f t="shared" si="21"/>
-        <v>-0.81698623000972093</v>
-      </c>
-      <c r="AG15" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.0243638641006403</v>
-      </c>
-      <c r="AH15" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.2239454838196224</v>
-      </c>
-      <c r="AI15" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.4142121550942808</v>
-      </c>
-      <c r="AJ15" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.5937158361147261</v>
-      </c>
-      <c r="AK15" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.7610903977874848</v>
-      </c>
-      <c r="AL15" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.9150620207852378</v>
-      </c>
-      <c r="AO15">
-        <f t="shared" si="22"/>
-        <v>29</v>
-      </c>
-      <c r="AP15">
-        <f t="shared" si="13"/>
-        <v>25</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="14"/>
-        <v>21</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="AS15">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="18"/>
-        <v>7</v>
+        <v>1.9999945176131511</v>
       </c>
     </row>
     <row r="16" spans="5:47" x14ac:dyDescent="0.3">
@@ -1783,7 +1780,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="9"/>
       <c r="P16" s="17"/>
-      <c r="Q16" s="28"/>
+      <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1801,67 +1798,67 @@
         <v>7</v>
       </c>
       <c r="AD16" s="22">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE16" s="21">
+        <f t="shared" si="21"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AF16" s="22">
+        <f t="shared" si="22"/>
+        <v>-0.45096022208013986</v>
+      </c>
+      <c r="AG16" s="22">
+        <f t="shared" si="12"/>
+        <v>-0.77878753754854491</v>
+      </c>
+      <c r="AH16" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.1006878196177927</v>
+      </c>
+      <c r="AI16" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.4142112169086121</v>
+      </c>
+      <c r="AJ16" s="22">
+        <f t="shared" si="12"/>
+        <v>-1.7169716310853662</v>
+      </c>
+      <c r="AK16" s="22">
+        <f t="shared" si="12"/>
+        <v>-2.0066648764744919</v>
+      </c>
+      <c r="AL16" s="22">
+        <f t="shared" si="12"/>
+        <v>-2.281086216279177</v>
+      </c>
+      <c r="AO16" s="26">
+        <f>$AK$23*(AF16-$AK$22)/$AK$20</f>
+        <v>10</v>
+      </c>
+      <c r="AP16" s="26">
+        <f t="shared" si="14"/>
+        <v>8.208717233089299</v>
+      </c>
+      <c r="AQ16" s="26">
+        <f t="shared" si="15"/>
+        <v>6.4498203970814094</v>
+      </c>
+      <c r="AR16" s="26">
+        <f t="shared" si="16"/>
+        <v>4.7366957363498718</v>
+      </c>
+      <c r="AS16" s="26">
+        <f t="shared" si="17"/>
+        <v>3.08238114196448</v>
+      </c>
+      <c r="AT16" s="26">
+        <f t="shared" si="18"/>
+        <v>1.4994669256352857</v>
+      </c>
+      <c r="AU16" s="26">
         <f t="shared" si="19"/>
-        <v>1.5</v>
-      </c>
-      <c r="AE16" s="21">
-        <f t="shared" si="20"/>
-        <v>-3.5</v>
-      </c>
-      <c r="AF16" s="22">
-        <f t="shared" si="21"/>
-        <v>-0.45096022208013986</v>
-      </c>
-      <c r="AG16" s="22">
-        <f t="shared" si="12"/>
-        <v>-0.77878753754854491</v>
-      </c>
-      <c r="AH16" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.1006878196177927</v>
-      </c>
-      <c r="AI16" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.4142112169086121</v>
-      </c>
-      <c r="AJ16" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.7169716310853662</v>
-      </c>
-      <c r="AK16" s="22">
-        <f t="shared" si="12"/>
-        <v>-2.0066648764744919</v>
-      </c>
-      <c r="AL16" s="22">
-        <f t="shared" si="12"/>
-        <v>-2.281086216279177</v>
-      </c>
-      <c r="AO16">
-        <f t="shared" si="22"/>
-        <v>37</v>
-      </c>
-      <c r="AP16">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1885,7 +1882,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="28"/>
+      <c r="P17" s="1"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1916,7 +1913,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="27"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="17"/>
@@ -1937,7 +1934,7 @@
       <c r="AI18" t="s">
         <v>25</v>
       </c>
-      <c r="AK18" s="25">
+      <c r="AK18" s="21">
         <f>AG24-AG22</f>
         <v>7</v>
       </c>
@@ -2020,7 +2017,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="26"/>
+      <c r="T20" s="25"/>
       <c r="U20" s="12"/>
       <c r="V20" s="13"/>
       <c r="W20" s="3"/>
@@ -2038,7 +2035,7 @@
       </c>
       <c r="AK20" s="21">
         <f>AK21-AK22</f>
-        <v>1.8301209774696949</v>
+        <v>1.8301259941990371</v>
       </c>
       <c r="AN20">
         <v>2</v>
@@ -2078,8 +2075,8 @@
         <v>28</v>
       </c>
       <c r="AK21" s="21">
-        <f>AL11</f>
-        <v>-0.45096523880948203</v>
+        <f>MAX(AF11:AL16)</f>
+        <v>-0.45096022208013986</v>
       </c>
       <c r="AN21">
         <v>3</v>
@@ -2129,7 +2126,7 @@
         <v>29</v>
       </c>
       <c r="AK22" s="21">
-        <f>AL16</f>
+        <f>MIN(AF12:AL17)</f>
         <v>-2.281086216279177</v>
       </c>
       <c r="AN22">
@@ -2183,8 +2180,7 @@
         <v>30</v>
       </c>
       <c r="AK23">
-        <f>20*AK20/AD21</f>
-        <v>36.6024195493939</v>
+        <v>10</v>
       </c>
       <c r="AN23">
         <v>5</v>
@@ -2312,7 +2308,7 @@
       </c>
       <c r="AK26">
         <f>AK23*AK25</f>
-        <v>256.21693684575729</v>
+        <v>70</v>
       </c>
       <c r="AN26">
         <v>8</v>

--- a/docs/hough created.xlsx
+++ b/docs/hough created.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F22822-3339-4162-AF84-72DF3EA939F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D4793D-C0F3-4F92-A082-FF1CB215BD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{EEFBBBD4-DAC4-4F35-8600-CC9D3F6E2E33}"/>
   </bookViews>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944A79A4-ED4E-4E71-8792-EA1E8F7DCD63}">
   <dimension ref="E4:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK24" sqref="AK24"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1327,7 +1327,7 @@
         <v>-0.45096523880948203</v>
       </c>
       <c r="AO11" s="26">
-        <f t="shared" ref="AO11:AO16" si="13">$AK$23*(AF11-$AK$22)/$AK$20</f>
+        <f t="shared" ref="AO11:AO15" si="13">$AK$23*(AF11-$AK$22)/$AK$20</f>
         <v>-2.2104756072326986E-5</v>
       </c>
       <c r="AP11" s="26">
@@ -2383,41 +2383,60 @@
       </c>
     </row>
     <row r="31" spans="5:47" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>174</v>
+      </c>
       <c r="AN31">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="5:47" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f>L31*3.14159/180</f>
+        <v>3.0368703333333333</v>
+      </c>
       <c r="AN32">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="40:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f>COS(L32)</f>
+        <v>-0.99452162723519366</v>
+      </c>
       <c r="AN33">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="40:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <f>SIN(L32)</f>
+        <v>0.10453101435202192</v>
+      </c>
       <c r="AN34">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="40:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <f>57*L33+50*L34</f>
+        <v>-51.461182034804949</v>
+      </c>
       <c r="AN35">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="40:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:40" x14ac:dyDescent="0.3">
       <c r="AN36">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="40:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:40" x14ac:dyDescent="0.3">
       <c r="AN37">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="40:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:40" x14ac:dyDescent="0.3">
       <c r="AN38">
         <v>20</v>
       </c>

--- a/docs/hough created.xlsx
+++ b/docs/hough created.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D4793D-C0F3-4F92-A082-FF1CB215BD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E3F533-FCEA-4438-ABD8-209C2C72236A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{EEFBBBD4-DAC4-4F35-8600-CC9D3F6E2E33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEFBBBD4-DAC4-4F35-8600-CC9D3F6E2E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -457,6 +463,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,347 +802,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944A79A4-ED4E-4E71-8792-EA1E8F7DCD63}">
-  <dimension ref="E4:AU38"/>
+  <dimension ref="A4:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="3.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="4.77734375" customWidth="1"/>
-    <col min="27" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="34" width="4.77734375" customWidth="1"/>
-    <col min="35" max="36" width="5.33203125" customWidth="1"/>
-    <col min="37" max="38" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="3.77734375" customWidth="1"/>
-    <col min="41" max="41" width="6.44140625" customWidth="1"/>
-    <col min="42" max="50" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="22" width="4.77734375" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="4.77734375" customWidth="1"/>
+    <col min="28" max="34" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="3.77734375" customWidth="1"/>
+    <col min="37" max="37" width="6.44140625" customWidth="1"/>
+    <col min="38" max="46" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="O4" t="s">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="V4" t="s">
+      <c r="R4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="5:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f t="shared" ref="H5:V7" si="0">K6-$X$6+0.5</f>
+        <v>-3.5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5" si="1">L6-$X$6+0.5</f>
+        <v>-2.5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5" si="2">M6-$X$6+0.5</f>
+        <v>-1.5</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5" si="3">N6-$X$6+0.5</f>
+        <v>-0.5</v>
+      </c>
       <c r="O5">
-        <f t="shared" ref="L5:Z7" si="0">O6-$AB$6+0.5</f>
+        <f t="shared" ref="O5" si="4">O6-$X$6+0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5" si="5">P6-$X$6+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5" si="6">Q6-$X$6+0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5" si="7">R6-$X$6+0.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="W5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+      <c r="AH5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>2</v>
+      </c>
+      <c r="N6" s="15">
+        <v>3</v>
+      </c>
+      <c r="O6" s="15">
+        <v>4</v>
+      </c>
+      <c r="P6" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>6</v>
+      </c>
+      <c r="R6" s="15">
+        <v>7</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <f>X5/2</f>
+        <v>4</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB6">
+        <v>30</v>
+      </c>
+      <c r="AC6">
+        <v>35</v>
+      </c>
+      <c r="AD6">
+        <v>40</v>
+      </c>
+      <c r="AE6">
+        <v>45</v>
+      </c>
+      <c r="AF6">
+        <v>50</v>
+      </c>
+      <c r="AG6">
+        <v>55</v>
+      </c>
+      <c r="AH6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f>G8-$X$6+0.5</f>
         <v>-3.5</v>
       </c>
-      <c r="P5">
-        <f t="shared" ref="P5" si="1">P6-$AB$6+0.5</f>
+      <c r="H7">
+        <f t="shared" si="0"/>
         <v>-2.5</v>
       </c>
-      <c r="Q5">
-        <f t="shared" ref="Q5" si="2">Q6-$AB$6+0.5</f>
+      <c r="I7">
+        <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
-      <c r="R5">
-        <f t="shared" ref="R5" si="3">R6-$AB$6+0.5</f>
+      <c r="J7">
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="S5">
-        <f t="shared" ref="S5" si="4">S6-$AB$6+0.5</f>
+      <c r="K7">
+        <f t="shared" si="0"/>
         <v>0.5</v>
-      </c>
-      <c r="T5">
-        <f t="shared" ref="T5" si="5">T6-$AB$6+0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="U5">
-        <f t="shared" ref="U5" si="6">U6-$AB$6+0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="V5">
-        <f t="shared" ref="V5" si="7">V6-$AB$6+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>2</v>
-      </c>
-      <c r="AI5">
-        <v>3</v>
-      </c>
-      <c r="AJ5">
-        <v>4</v>
-      </c>
-      <c r="AK5">
-        <v>5</v>
-      </c>
-      <c r="AL5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="5:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O6" s="15">
-        <v>0</v>
-      </c>
-      <c r="P6" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>2</v>
-      </c>
-      <c r="R6" s="15">
-        <v>3</v>
-      </c>
-      <c r="S6" s="15">
-        <v>4</v>
-      </c>
-      <c r="T6" s="15">
-        <v>5</v>
-      </c>
-      <c r="U6" s="15">
-        <v>6</v>
-      </c>
-      <c r="V6" s="15">
-        <v>7</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <f>AB5/2</f>
-        <v>4</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF6">
-        <v>30</v>
-      </c>
-      <c r="AG6">
-        <v>35</v>
-      </c>
-      <c r="AH6">
-        <v>40</v>
-      </c>
-      <c r="AI6">
-        <v>45</v>
-      </c>
-      <c r="AJ6">
-        <v>50</v>
-      </c>
-      <c r="AK6">
-        <v>55</v>
-      </c>
-      <c r="AL6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="5:47" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="K7">
-        <f>K8-$AB$6+0.5</f>
-        <v>-3.5</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AA7" t="s">
         <v>11</v>
       </c>
-      <c r="AF7" s="19">
-        <f>AF6*3.14159/180</f>
+      <c r="AB7" s="19">
+        <f>AB6*3.14159/180</f>
         <v>0.52359833333333328</v>
       </c>
-      <c r="AG7" s="19">
-        <f t="shared" ref="AG7:AL7" si="8">AG6*3.14159/180</f>
+      <c r="AC7" s="19">
+        <f t="shared" ref="AC7:AH7" si="8">AC6*3.14159/180</f>
         <v>0.61086472222222221</v>
       </c>
-      <c r="AH7" s="19">
+      <c r="AD7" s="19">
         <f t="shared" si="8"/>
         <v>0.69813111111111115</v>
       </c>
-      <c r="AI7" s="19">
+      <c r="AE7" s="19">
         <f t="shared" si="8"/>
         <v>0.78539749999999997</v>
       </c>
-      <c r="AJ7" s="19">
+      <c r="AF7" s="19">
         <f t="shared" si="8"/>
         <v>0.87266388888888891</v>
       </c>
-      <c r="AK7" s="23">
+      <c r="AG7" s="23">
         <f t="shared" si="8"/>
         <v>0.95993027777777784</v>
       </c>
-      <c r="AL7" s="23">
+      <c r="AH7" s="23">
         <f t="shared" si="8"/>
         <v>1.0471966666666666</v>
       </c>
     </row>
-    <row r="8" spans="5:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
       <c r="K8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T8">
+        <v>13</v>
+      </c>
+      <c r="U8">
+        <v>14</v>
+      </c>
+      <c r="V8">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="s">
         <v>9</v>
       </c>
-      <c r="U8">
-        <v>10</v>
-      </c>
-      <c r="V8">
-        <v>11</v>
-      </c>
-      <c r="W8">
-        <v>12</v>
-      </c>
-      <c r="X8">
-        <v>13</v>
-      </c>
-      <c r="Y8">
-        <v>14</v>
-      </c>
-      <c r="Z8">
-        <v>15</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF8">
-        <f>COS(AF7)</f>
+      <c r="AB8" s="29">
+        <f>COS(AB7)</f>
         <v>0.86602562491683677</v>
       </c>
-      <c r="AG8">
-        <f t="shared" ref="AG8:AL8" si="9">COS(AG7)</f>
+      <c r="AC8">
+        <f t="shared" ref="AC8:AH8" si="9">COS(AC7)</f>
         <v>0.81915234024043937</v>
       </c>
-      <c r="AH8">
+      <c r="AD8">
         <f t="shared" si="9"/>
         <v>0.76604482216209824</v>
       </c>
-      <c r="AI8">
+      <c r="AE8">
         <f t="shared" si="9"/>
         <v>0.70710725027922627</v>
       </c>
-      <c r="AJ8">
+      <c r="AF8">
         <f t="shared" si="9"/>
         <v>0.64278817434406343</v>
       </c>
-      <c r="AK8" s="20">
+      <c r="AG8" s="20">
         <f t="shared" si="9"/>
         <v>0.57357710053498367</v>
       </c>
-      <c r="AL8" s="20">
+      <c r="AH8" s="20">
         <f t="shared" si="9"/>
         <v>0.50000076602519528</v>
       </c>
     </row>
-    <row r="9" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f>$B$10-F9-0.5</f>
+        <v>3.5</v>
+      </c>
       <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <f>$F$10-J9-0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="J9">
         <v>0</v>
       </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1144,81 +1157,81 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AE9" t="s">
+      <c r="AA9" t="s">
         <v>10</v>
       </c>
-      <c r="AF9" s="19">
-        <f>SIN(AF7)</f>
+      <c r="AB9" s="30">
+        <f>SIN(AB7)</f>
         <v>0.4999996169872557</v>
       </c>
-      <c r="AG9" s="19">
-        <f t="shared" ref="AG9:AL9" si="10">SIN(AG7)</f>
+      <c r="AC9" s="19">
+        <f t="shared" ref="AC9:AH9" si="10">SIN(AC7)</f>
         <v>0.57357601368834399</v>
       </c>
-      <c r="AH9" s="19">
+      <c r="AD9" s="19">
         <f t="shared" si="10"/>
         <v>0.64278715796026864</v>
       </c>
-      <c r="AI9" s="19">
+      <c r="AE9" s="19">
         <f t="shared" si="10"/>
         <v>0.70710631209355757</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="AF9" s="19">
         <f t="shared" si="10"/>
         <v>0.7660439693147032</v>
       </c>
-      <c r="AK9" s="23">
+      <c r="AG9" s="23">
         <f t="shared" si="10"/>
         <v>0.81915157922199067</v>
       </c>
-      <c r="AL9" s="23">
+      <c r="AH9" s="23">
         <f t="shared" si="10"/>
         <v>0.86602496151913422</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AJ9" t="s">
         <v>35</v>
       </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <v>3</v>
+      </c>
       <c r="AO9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP9">
+        <v>5</v>
+      </c>
+      <c r="AQ9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f>B9/2</f>
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="C10:E24" si="11">$B$10-F10-0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="AQ9">
-        <v>2</v>
-      </c>
-      <c r="AR9">
-        <v>3</v>
-      </c>
-      <c r="AS9">
-        <v>4</v>
-      </c>
-      <c r="AT9">
-        <v>5</v>
-      </c>
-      <c r="AU9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <f>F9/2</f>
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="G10:I24" si="11">$F$10-J10-0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1231,43 +1244,43 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AB10" s="19" t="s">
+      <c r="X10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="19" t="s">
+      <c r="Y10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="24" t="s">
+      <c r="Z10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="19" t="s">
+      <c r="AA10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AF10" s="24" t="s">
+      <c r="AB10" s="24" t="s">
         <v>12</v>
       </c>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AN10" t="s">
+      <c r="AJ10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="I11">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="E11">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
-      <c r="J11">
+      <c r="F11">
         <v>2</v>
       </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1280,819 +1293,822 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AB11">
+      <c r="X11">
         <v>0</v>
       </c>
-      <c r="AC11">
+      <c r="Y11">
         <v>2</v>
       </c>
-      <c r="AD11" s="22">
-        <f>AB11-$AB$6+0.5</f>
+      <c r="Z11" s="27">
+        <f>X11-$X$6+0.5</f>
         <v>-3.5</v>
       </c>
-      <c r="AE11" s="21">
-        <f>$F$10-AC11-0.5</f>
+      <c r="AA11" s="28">
+        <f>$B$10-Y11-0.5</f>
         <v>1.5</v>
       </c>
-      <c r="AF11" s="22">
-        <f>$AD11*AF$8+$AE11*AF$9</f>
+      <c r="AB11" s="31">
+        <f>$Z11*AB$8+$AA11*AB$9</f>
         <v>-2.2810902617280453</v>
       </c>
-      <c r="AG11" s="22">
-        <f t="shared" ref="AG11:AL16" si="12">$AD11*AG$8+$AE11*AG$9</f>
+      <c r="AC11" s="31">
+        <f t="shared" ref="AC11:AH16" si="12">$Z11*AC$8+$AA11*AC$9</f>
         <v>-2.0066691703090216</v>
       </c>
-      <c r="AH11" s="22">
+      <c r="AD11" s="31">
         <f t="shared" si="12"/>
         <v>-1.7169761406269408</v>
       </c>
-      <c r="AI11" s="22">
+      <c r="AE11" s="31">
         <f t="shared" si="12"/>
         <v>-1.4142159078369556</v>
       </c>
-      <c r="AJ11" s="22">
+      <c r="AF11" s="31">
         <f t="shared" si="12"/>
         <v>-1.1006926562321673</v>
       </c>
-      <c r="AK11" s="22">
+      <c r="AG11" s="31">
         <f t="shared" si="12"/>
         <v>-0.77879248303945703</v>
       </c>
-      <c r="AL11" s="22">
+      <c r="AH11" s="31">
         <f t="shared" si="12"/>
         <v>-0.45096523880948203</v>
       </c>
+      <c r="AK11" s="26">
+        <f t="shared" ref="AK11:AK15" si="13">$AG$23*(AB11-$AG$22)/$AG$20</f>
+        <v>-2.2104756072326986E-5</v>
+      </c>
+      <c r="AL11" s="26">
+        <f t="shared" ref="AL11:AL16" si="14">$AG$23*(AC11-$AG$22)/$AG$20</f>
+        <v>1.49944346367396</v>
+      </c>
+      <c r="AM11" s="26">
+        <f t="shared" ref="AM11:AM16" si="15">$AG$23*(AD11-$AG$22)/$AG$20</f>
+        <v>3.0823565013572818</v>
+      </c>
+      <c r="AN11" s="26">
+        <f t="shared" ref="AN11:AN16" si="16">$AG$23*(AE11-$AG$22)/$AG$20</f>
+        <v>4.7366701046263815</v>
+      </c>
       <c r="AO11" s="26">
-        <f t="shared" ref="AO11:AO15" si="13">$AK$23*(AF11-$AK$22)/$AK$20</f>
-        <v>-2.2104756072326986E-5</v>
+        <f t="shared" ref="AO11:AO16" si="17">$AG$23*(AF11-$AG$22)/$AG$20</f>
+        <v>6.4497939693141966</v>
       </c>
       <c r="AP11" s="26">
-        <f t="shared" ref="AP11:AP16" si="14">$AK$23*(AG11-$AK$22)/$AK$20</f>
-        <v>1.49944346367396</v>
+        <f t="shared" ref="AP11:AP16" si="18">$AG$23*(AG11-$AG$22)/$AG$20</f>
+        <v>8.2086902104092871</v>
       </c>
       <c r="AQ11" s="26">
-        <f t="shared" ref="AQ11:AQ16" si="15">$AK$23*(AH11-$AK$22)/$AK$20</f>
-        <v>3.0823565013572818</v>
-      </c>
-      <c r="AR11" s="26">
-        <f t="shared" ref="AR11:AR16" si="16">$AK$23*(AI11-$AK$22)/$AK$20</f>
-        <v>4.7366701046263815</v>
-      </c>
-      <c r="AS11" s="26">
-        <f t="shared" ref="AS11:AS16" si="17">$AK$23*(AJ11-$AK$22)/$AK$20</f>
-        <v>6.4497939693141966</v>
-      </c>
-      <c r="AT11" s="26">
-        <f t="shared" ref="AT11:AT16" si="18">$AK$23*(AK11-$AK$22)/$AK$20</f>
-        <v>8.2086902104092871</v>
-      </c>
-      <c r="AU11" s="26">
-        <f t="shared" ref="AU11:AU16" si="19">$AK$23*(AL11-$AK$22)/$AK$20</f>
+        <f t="shared" ref="AQ11:AQ16" si="19">$AG$23*(AH11-$AG$22)/$AG$20</f>
         <v>9.9999725880657504</v>
       </c>
     </row>
-    <row r="12" spans="5:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12">
+    <row r="12" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="J12">
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AB12">
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="X12">
         <v>1</v>
       </c>
-      <c r="AC12">
+      <c r="Y12">
         <v>3</v>
       </c>
-      <c r="AD12" s="22">
-        <f t="shared" ref="AD12:AD16" si="20">AB12-$AB$6+0.5</f>
+      <c r="Z12" s="22">
+        <f t="shared" ref="Z12:Z16" si="20">X12-$X$6+0.5</f>
         <v>-2.5</v>
       </c>
-      <c r="AE12" s="21">
-        <f t="shared" ref="AE12:AE16" si="21">$F$10-AC12-0.5</f>
+      <c r="AA12" s="21">
+        <f t="shared" ref="AA12:AA16" si="21">$B$10-Y12-0.5</f>
         <v>0.5</v>
       </c>
-      <c r="AF12" s="22">
-        <f t="shared" ref="AF12:AF16" si="22">$AD12*AF$8+$AE12*AF$9</f>
+      <c r="AB12" s="31">
+        <f t="shared" ref="AB12:AB16" si="22">$Z12*AB$8+$AA12*AB$9</f>
         <v>-1.9150642537984641</v>
       </c>
-      <c r="AG12" s="22">
+      <c r="AC12" s="31">
         <f t="shared" si="12"/>
         <v>-1.7610928437569267</v>
       </c>
-      <c r="AH12" s="22">
+      <c r="AD12" s="31">
         <f t="shared" si="12"/>
         <v>-1.5937184764251113</v>
       </c>
-      <c r="AI12" s="22">
+      <c r="AE12" s="31">
         <f t="shared" si="12"/>
         <v>-1.4142149696512869</v>
       </c>
-      <c r="AJ12" s="22">
+      <c r="AF12" s="31">
         <f t="shared" si="12"/>
         <v>-1.2239484512028072</v>
       </c>
-      <c r="AK12" s="22">
+      <c r="AG12" s="31">
         <f t="shared" si="12"/>
         <v>-1.0243669617264639</v>
       </c>
-      <c r="AL12" s="22">
+      <c r="AH12" s="31">
         <f t="shared" si="12"/>
         <v>-0.81698943430342108</v>
       </c>
-      <c r="AO12" s="26">
+      <c r="AK12" s="26">
         <f t="shared" si="13"/>
         <v>1.9999823161951427</v>
       </c>
-      <c r="AP12" s="26">
+      <c r="AL12" s="26">
         <f t="shared" si="14"/>
         <v>2.8412982175570254</v>
       </c>
-      <c r="AQ12" s="26">
+      <c r="AM12" s="26">
         <f t="shared" si="15"/>
         <v>3.7558492805021069</v>
       </c>
-      <c r="AR12" s="26">
+      <c r="AN12" s="26">
         <f t="shared" si="16"/>
         <v>4.7366752309710796</v>
       </c>
-      <c r="AS12" s="26">
+      <c r="AO12" s="26">
         <f t="shared" si="17"/>
         <v>5.776311403844252</v>
       </c>
-      <c r="AT12" s="26">
+      <c r="AP12" s="26">
         <f t="shared" si="18"/>
         <v>6.8668455534544881</v>
       </c>
-      <c r="AU12" s="26">
+      <c r="AQ12" s="26">
         <f t="shared" si="19"/>
         <v>7.9999780704525989</v>
       </c>
     </row>
-    <row r="13" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="G13">
-        <f>$F$10-H13-0.5</f>
+      <c r="C13">
+        <f>$B$10-D13-0.5</f>
         <v>3.5</v>
       </c>
-      <c r="H13" s="14">
+      <c r="D13" s="14">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="E13">
         <f t="shared" si="11"/>
         <v>-0.5</v>
       </c>
-      <c r="J13">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AB13">
+      <c r="R13" s="8"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="X13">
         <v>2</v>
       </c>
-      <c r="AC13">
+      <c r="Y13">
         <v>4</v>
       </c>
-      <c r="AD13" s="22">
+      <c r="Z13" s="22">
         <f t="shared" si="20"/>
         <v>-1.5</v>
       </c>
-      <c r="AE13" s="21">
+      <c r="AA13" s="21">
         <f t="shared" si="21"/>
         <v>-0.5</v>
       </c>
-      <c r="AF13" s="22">
+      <c r="AB13" s="31">
         <f t="shared" si="22"/>
         <v>-1.5490382458688829</v>
       </c>
-      <c r="AG13" s="22">
+      <c r="AC13" s="31">
         <f t="shared" si="12"/>
         <v>-1.515516517204831</v>
       </c>
-      <c r="AH13" s="22">
+      <c r="AD13" s="31">
         <f t="shared" si="12"/>
         <v>-1.4704608122232816</v>
       </c>
-      <c r="AI13" s="22">
+      <c r="AE13" s="31">
         <f t="shared" si="12"/>
         <v>-1.4142140314656182</v>
       </c>
-      <c r="AJ13" s="22">
+      <c r="AF13" s="31">
         <f t="shared" si="12"/>
         <v>-1.3472042461734466</v>
       </c>
-      <c r="AK13" s="22">
+      <c r="AG13" s="31">
         <f t="shared" si="12"/>
         <v>-1.2699414404134708</v>
       </c>
-      <c r="AL13" s="22">
+      <c r="AH13" s="31">
         <f t="shared" si="12"/>
         <v>-1.1830136297973599</v>
       </c>
-      <c r="AO13" s="26">
+      <c r="AK13" s="26">
         <f t="shared" si="13"/>
         <v>3.9999867371463576</v>
       </c>
-      <c r="AP13" s="26">
+      <c r="AL13" s="26">
         <f t="shared" si="14"/>
         <v>4.1831529714400943</v>
       </c>
-      <c r="AQ13" s="26">
+      <c r="AM13" s="26">
         <f t="shared" si="15"/>
         <v>4.4293420596469328</v>
       </c>
-      <c r="AR13" s="26">
+      <c r="AN13" s="26">
         <f t="shared" si="16"/>
         <v>4.7366803573157776</v>
       </c>
-      <c r="AS13" s="26">
+      <c r="AO13" s="26">
         <f t="shared" si="17"/>
         <v>5.102828838374311</v>
       </c>
-      <c r="AT13" s="26">
+      <c r="AP13" s="26">
         <f t="shared" si="18"/>
         <v>5.5250008964996873</v>
       </c>
-      <c r="AU13" s="26">
+      <c r="AQ13" s="26">
         <f t="shared" si="19"/>
         <v>5.999983552839451</v>
       </c>
     </row>
-    <row r="14" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="G14">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C14">
         <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="H14" s="14">
+      <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="E14">
         <f t="shared" si="11"/>
         <v>-1.5</v>
       </c>
-      <c r="J14">
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="9"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="3"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AB14">
+      <c r="V14" s="1"/>
+      <c r="X14">
         <v>3</v>
       </c>
-      <c r="AC14">
+      <c r="Y14">
         <v>5</v>
       </c>
-      <c r="AD14" s="22">
+      <c r="Z14" s="22">
         <f t="shared" si="20"/>
         <v>-0.5</v>
       </c>
-      <c r="AE14" s="21">
+      <c r="AA14" s="21">
         <f t="shared" si="21"/>
         <v>-1.5</v>
       </c>
-      <c r="AF14" s="22">
+      <c r="AB14" s="31">
         <f t="shared" si="22"/>
         <v>-1.1830122379393018</v>
       </c>
-      <c r="AG14" s="22">
+      <c r="AC14" s="31">
         <f t="shared" si="12"/>
         <v>-1.2699401906527357</v>
       </c>
-      <c r="AH14" s="22">
+      <c r="AD14" s="31">
         <f t="shared" si="12"/>
         <v>-1.3472031480214521</v>
       </c>
-      <c r="AI14" s="22">
+      <c r="AE14" s="31">
         <f t="shared" si="12"/>
         <v>-1.4142130932799495</v>
       </c>
-      <c r="AJ14" s="22">
+      <c r="AF14" s="31">
         <f t="shared" si="12"/>
         <v>-1.4704600411440867</v>
       </c>
-      <c r="AK14" s="22">
+      <c r="AG14" s="31">
         <f t="shared" si="12"/>
         <v>-1.5155159191004779</v>
       </c>
-      <c r="AL14" s="22">
+      <c r="AH14" s="31">
         <f t="shared" si="12"/>
         <v>-1.5490378252912991</v>
       </c>
-      <c r="AO14" s="26">
+      <c r="AK14" s="26">
         <f t="shared" si="13"/>
         <v>5.9999911580975729</v>
       </c>
-      <c r="AP14" s="26">
+      <c r="AL14" s="26">
         <f t="shared" si="14"/>
         <v>5.5250077253231629</v>
       </c>
-      <c r="AQ14" s="26">
+      <c r="AM14" s="26">
         <f t="shared" si="15"/>
         <v>5.1028348387917575</v>
       </c>
-      <c r="AR14" s="26">
+      <c r="AN14" s="26">
         <f t="shared" si="16"/>
         <v>4.7366854836604757</v>
       </c>
-      <c r="AS14" s="26">
+      <c r="AO14" s="26">
         <f t="shared" si="17"/>
         <v>4.4293462729043664</v>
       </c>
-      <c r="AT14" s="26">
+      <c r="AP14" s="26">
         <f t="shared" si="18"/>
         <v>4.1831562395448865</v>
       </c>
-      <c r="AU14" s="26">
+      <c r="AQ14" s="26">
         <f t="shared" si="19"/>
         <v>3.9999890352262994</v>
       </c>
     </row>
-    <row r="15" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="G15">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C15">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
-      <c r="H15" s="14">
+      <c r="D15" s="14">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="E15">
         <f t="shared" si="11"/>
         <v>-2.5</v>
       </c>
-      <c r="J15">
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="16"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="3"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AB15">
+      <c r="V15" s="1"/>
+      <c r="X15">
         <v>4</v>
       </c>
-      <c r="AC15">
+      <c r="Y15">
         <v>6</v>
       </c>
-      <c r="AD15" s="22">
+      <c r="Z15" s="22">
         <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
-      <c r="AE15" s="21">
+      <c r="AA15" s="21">
         <f t="shared" si="21"/>
         <v>-2.5</v>
       </c>
-      <c r="AF15" s="22">
+      <c r="AB15" s="31">
         <f t="shared" si="22"/>
         <v>-0.81698623000972093</v>
       </c>
-      <c r="AG15" s="22">
+      <c r="AC15" s="31">
         <f t="shared" si="12"/>
         <v>-1.0243638641006403</v>
       </c>
-      <c r="AH15" s="22">
+      <c r="AD15" s="31">
         <f t="shared" si="12"/>
         <v>-1.2239454838196224</v>
       </c>
-      <c r="AI15" s="22">
+      <c r="AE15" s="31">
         <f t="shared" si="12"/>
         <v>-1.4142121550942808</v>
       </c>
-      <c r="AJ15" s="22">
+      <c r="AF15" s="31">
         <f t="shared" si="12"/>
         <v>-1.5937158361147261</v>
       </c>
-      <c r="AK15" s="22">
+      <c r="AG15" s="31">
         <f t="shared" si="12"/>
         <v>-1.7610903977874848</v>
       </c>
-      <c r="AL15" s="22">
+      <c r="AH15" s="31">
         <f t="shared" si="12"/>
         <v>-1.9150620207852378</v>
       </c>
-      <c r="AO15" s="26">
+      <c r="AK15" s="26">
         <f t="shared" si="13"/>
         <v>7.9999955790487851</v>
       </c>
-      <c r="AP15" s="26">
+      <c r="AL15" s="26">
         <f t="shared" si="14"/>
         <v>6.8668624792062305</v>
       </c>
-      <c r="AQ15" s="26">
+      <c r="AM15" s="26">
         <f t="shared" si="15"/>
         <v>5.7763276179365839</v>
       </c>
-      <c r="AR15" s="26">
+      <c r="AN15" s="26">
         <f t="shared" si="16"/>
         <v>4.7366906100051738</v>
       </c>
-      <c r="AS15" s="26">
+      <c r="AO15" s="26">
         <f t="shared" si="17"/>
         <v>3.7558637074344245</v>
       </c>
-      <c r="AT15" s="26">
+      <c r="AP15" s="26">
         <f t="shared" si="18"/>
         <v>2.8413115825900865</v>
       </c>
-      <c r="AU15" s="26">
+      <c r="AQ15" s="26">
         <f t="shared" si="19"/>
         <v>1.9999945176131511</v>
       </c>
     </row>
-    <row r="16" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="G16">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C16">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="H16" s="14">
+      <c r="D16" s="14">
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="E16">
         <f t="shared" si="11"/>
         <v>-3.5</v>
       </c>
-      <c r="J16">
+      <c r="F16">
         <v>7</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="17"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="3"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AB16">
-        <f>AB15+1</f>
+      <c r="V16" s="1"/>
+      <c r="X16">
+        <f>X15+1</f>
         <v>5</v>
       </c>
-      <c r="AC16">
+      <c r="Y16">
         <v>7</v>
       </c>
-      <c r="AD16" s="22">
+      <c r="Z16" s="22">
         <f t="shared" si="20"/>
         <v>1.5</v>
       </c>
-      <c r="AE16" s="21">
+      <c r="AA16" s="21">
         <f t="shared" si="21"/>
         <v>-3.5</v>
       </c>
-      <c r="AF16" s="22">
+      <c r="AB16" s="31">
         <f t="shared" si="22"/>
         <v>-0.45096022208013986</v>
       </c>
-      <c r="AG16" s="22">
+      <c r="AC16" s="31">
         <f t="shared" si="12"/>
         <v>-0.77878753754854491</v>
       </c>
-      <c r="AH16" s="22">
+      <c r="AD16" s="31">
         <f t="shared" si="12"/>
         <v>-1.1006878196177927</v>
       </c>
-      <c r="AI16" s="22">
+      <c r="AE16" s="31">
         <f t="shared" si="12"/>
         <v>-1.4142112169086121</v>
       </c>
-      <c r="AJ16" s="22">
+      <c r="AF16" s="31">
         <f t="shared" si="12"/>
         <v>-1.7169716310853662</v>
       </c>
-      <c r="AK16" s="22">
+      <c r="AG16" s="31">
         <f t="shared" si="12"/>
         <v>-2.0066648764744919</v>
       </c>
-      <c r="AL16" s="22">
+      <c r="AH16" s="31">
         <f t="shared" si="12"/>
         <v>-2.281086216279177</v>
       </c>
-      <c r="AO16" s="26">
-        <f>$AK$23*(AF16-$AK$22)/$AK$20</f>
+      <c r="AK16" s="26">
+        <f>$AG$23*(AB16-$AG$22)/$AG$20</f>
         <v>10</v>
       </c>
-      <c r="AP16" s="26">
+      <c r="AL16" s="26">
         <f t="shared" si="14"/>
         <v>8.208717233089299</v>
       </c>
-      <c r="AQ16" s="26">
+      <c r="AM16" s="26">
         <f t="shared" si="15"/>
         <v>6.4498203970814094</v>
       </c>
-      <c r="AR16" s="26">
+      <c r="AN16" s="26">
         <f t="shared" si="16"/>
         <v>4.7366957363498718</v>
       </c>
-      <c r="AS16" s="26">
+      <c r="AO16" s="26">
         <f t="shared" si="17"/>
         <v>3.08238114196448</v>
       </c>
-      <c r="AT16" s="26">
+      <c r="AP16" s="26">
         <f t="shared" si="18"/>
         <v>1.4994669256352857</v>
       </c>
-      <c r="AU16" s="26">
+      <c r="AQ16" s="26">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="G17">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C17">
         <f t="shared" si="11"/>
         <v>-0.5</v>
       </c>
-      <c r="H17" s="14">
+      <c r="D17" s="14">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="E17">
         <f t="shared" si="11"/>
         <v>-4.5</v>
       </c>
-      <c r="J17">
+      <c r="F17">
         <v>8</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="9"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="3"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="G18">
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C18">
         <f t="shared" si="11"/>
         <v>-1.5</v>
       </c>
-      <c r="H18" s="14">
+      <c r="D18" s="14">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="E18">
         <f t="shared" si="11"/>
         <v>-5.5</v>
       </c>
-      <c r="J18">
+      <c r="F18">
         <v>9</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="9"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="1"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="3"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AB18" t="s">
+      <c r="V18" s="1"/>
+      <c r="X18" t="s">
         <v>13</v>
       </c>
-      <c r="AD18">
+      <c r="Z18">
         <v>30</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AE18" t="s">
         <v>25</v>
       </c>
-      <c r="AK18" s="21">
-        <f>AG24-AG22</f>
+      <c r="AG18" s="20">
+        <f>AC24-AC22</f>
         <v>7</v>
       </c>
-      <c r="AN18">
+      <c r="AJ18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="G19">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C19">
         <f t="shared" si="11"/>
         <v>-2.5</v>
       </c>
-      <c r="H19" s="14">
+      <c r="D19" s="14">
         <v>6</v>
       </c>
-      <c r="I19">
+      <c r="E19">
         <f t="shared" si="11"/>
         <v>-6.5</v>
       </c>
-      <c r="J19">
+      <c r="F19">
         <v>10</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="9"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="17"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="3"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AB19" t="s">
+      <c r="V19" s="1"/>
+      <c r="X19" t="s">
         <v>14</v>
       </c>
-      <c r="AD19">
+      <c r="Z19">
         <v>60</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AE19" t="s">
         <v>26</v>
       </c>
-      <c r="AK19" s="21">
-        <f>AG25-AG23</f>
+      <c r="AG19" s="20">
+        <f>AC25-AC23</f>
         <v>-7</v>
       </c>
-      <c r="AN19">
+      <c r="AJ19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="5:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" t="s">
+    <row r="20" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="G20">
+      <c r="C20">
         <f t="shared" si="11"/>
         <v>-3.5</v>
       </c>
-      <c r="H20" s="14">
+      <c r="D20" s="14">
         <v>7</v>
       </c>
-      <c r="I20">
+      <c r="E20">
         <f t="shared" si="11"/>
         <v>-7.5</v>
       </c>
-      <c r="J20">
+      <c r="F20">
         <v>11</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="12"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="25"/>
       <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AB20" t="s">
+      <c r="R20" s="13"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="X20" t="s">
         <v>15</v>
       </c>
-      <c r="AD20">
+      <c r="Z20">
         <v>5</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AE20" t="s">
         <v>27</v>
       </c>
-      <c r="AK20" s="21">
-        <f>AK21-AK22</f>
+      <c r="AG20" s="20">
+        <f>AG21-AG22</f>
         <v>1.8301259941990371</v>
       </c>
-      <c r="AN20">
+      <c r="AJ20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="I21">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="E21">
         <f t="shared" si="11"/>
         <v>-8.5</v>
       </c>
-      <c r="J21">
+      <c r="F21">
         <v>12</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AB21" t="s">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="X21" t="s">
         <v>16</v>
       </c>
-      <c r="AD21">
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AE21" t="s">
         <v>28</v>
       </c>
-      <c r="AK21" s="21">
-        <f>MAX(AF11:AL16)</f>
+      <c r="AG21" s="20">
+        <f>MAX(AB11:AH16)</f>
         <v>-0.45096022208013986</v>
       </c>
-      <c r="AN21">
+      <c r="AH21">
+        <v>4.9497489999999997</v>
+      </c>
+      <c r="AJ21">
         <v>3</v>
       </c>
-      <c r="AU21">
+      <c r="AQ21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="I22">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="E22">
         <f t="shared" si="11"/>
         <v>-9.5</v>
       </c>
-      <c r="J22">
+      <c r="F22">
         <v>13</v>
       </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2105,48 +2121,51 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AB22" t="s">
+      <c r="X22" t="s">
         <v>17</v>
       </c>
-      <c r="AD22">
+      <c r="Z22">
         <v>0</v>
       </c>
+      <c r="AA22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC22" s="21">
+        <f>0-$Z$28+0.5</f>
+        <v>-3.5</v>
+      </c>
       <c r="AE22" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG22" s="21">
-        <f>0-$AD$28+0.5</f>
-        <v>-3.5</v>
-      </c>
-      <c r="AI22" t="s">
         <v>29</v>
       </c>
-      <c r="AK22" s="21">
-        <f>MIN(AF12:AL17)</f>
+      <c r="AG22" s="20">
+        <f>MIN(AB12:AH17)</f>
         <v>-2.281086216279177</v>
       </c>
-      <c r="AN22">
+      <c r="AH22">
+        <v>-4.9497489999999997</v>
+      </c>
+      <c r="AJ22">
         <v>4</v>
       </c>
-      <c r="AT22">
+      <c r="AP22">
         <v>1</v>
       </c>
-      <c r="AU22">
+      <c r="AQ22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="I23">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="E23">
         <f t="shared" si="11"/>
         <v>-10.5</v>
       </c>
-      <c r="J23">
+      <c r="F23">
         <v>14</v>
       </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2159,50 +2178,50 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AB23" t="s">
+      <c r="X23" t="s">
         <v>18</v>
       </c>
-      <c r="AD23">
+      <c r="Z23">
         <v>0</v>
       </c>
+      <c r="AA23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC23" s="21">
+        <f>$Z$29-0-0.5</f>
+        <v>3.5</v>
+      </c>
       <c r="AE23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG23" s="21">
-        <f>$AD$29-0-0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="AI23" t="s">
         <v>30</v>
       </c>
-      <c r="AK23">
+      <c r="AG23">
         <v>10</v>
       </c>
-      <c r="AN23">
+      <c r="AJ23">
         <v>5</v>
       </c>
-      <c r="AS23">
+      <c r="AO23">
         <v>1</v>
       </c>
-      <c r="AT23">
+      <c r="AP23">
         <v>2</v>
       </c>
-      <c r="AU23">
+      <c r="AQ23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="I24">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="E24">
         <f t="shared" si="11"/>
         <v>-11.5</v>
       </c>
-      <c r="J24">
+      <c r="F24">
         <v>15</v>
       </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2215,229 +2234,225 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AB24" t="s">
+      <c r="X24" t="s">
         <v>19</v>
       </c>
-      <c r="AD24">
+      <c r="Z24">
         <v>7</v>
       </c>
+      <c r="AA24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC24" s="21">
+        <f>$Z$26-1-$Z$28+0.5</f>
+        <v>3.5</v>
+      </c>
       <c r="AE24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG24" s="21">
-        <f>$AD$26-1-$AD$28+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="AI24" t="s">
         <v>31</v>
       </c>
-      <c r="AK24">
-        <f>AD19-AD18</f>
+      <c r="AG24">
+        <f>Z19-Z18</f>
         <v>30</v>
       </c>
+      <c r="AJ24">
+        <v>6</v>
+      </c>
       <c r="AN24">
-        <v>6</v>
-      </c>
-      <c r="AR24">
         <v>1</v>
       </c>
-      <c r="AS24">
+      <c r="AO24">
         <v>2</v>
       </c>
-      <c r="AT24">
+      <c r="AP24">
         <v>1</v>
       </c>
-      <c r="AU24">
+      <c r="AQ24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="AB25" t="s">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="X25" t="s">
         <v>20</v>
       </c>
-      <c r="AD25">
+      <c r="Z25">
         <v>7</v>
       </c>
+      <c r="AA25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC25" s="21">
+        <f>$Z$29-(Z27-1)-0.5</f>
+        <v>-3.5</v>
+      </c>
       <c r="AE25" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG25" s="21">
-        <f>$AD$29-(AD27-1)-0.5</f>
-        <v>-3.5</v>
-      </c>
-      <c r="AI25" t="s">
         <v>32</v>
       </c>
-      <c r="AK25">
-        <f>AK24/AD20+1</f>
+      <c r="AG25">
+        <f>AG24/Z20+1</f>
         <v>7</v>
       </c>
+      <c r="AJ25">
+        <v>7</v>
+      </c>
+      <c r="AL25">
+        <v>2</v>
+      </c>
       <c r="AN25">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="AO25">
+        <v>2</v>
       </c>
       <c r="AP25">
         <v>2</v>
       </c>
-      <c r="AR25">
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="X26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f>Z24-Z22+1</f>
+        <v>8</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG26">
+        <f>AG23*AG25</f>
+        <v>70</v>
+      </c>
+      <c r="AJ26">
+        <v>8</v>
+      </c>
+      <c r="AK26">
+        <v>3</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>6</v>
+      </c>
+      <c r="AN26">
         <v>2</v>
       </c>
-      <c r="AS25">
+      <c r="AO26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="X27" t="s">
         <v>2</v>
       </c>
-      <c r="AT25">
+      <c r="Z27">
+        <f>Z25-Z23+1</f>
+        <v>8</v>
+      </c>
+      <c r="AJ27">
+        <v>9</v>
+      </c>
+      <c r="AK27">
+        <v>3</v>
+      </c>
+      <c r="AL27">
         <v>2</v>
       </c>
-      <c r="AU25">
+      <c r="AN27">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="AB26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <f>AD24-AD22+1</f>
-        <v>8</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK26">
-        <f>AK23*AK25</f>
-        <v>70</v>
-      </c>
-      <c r="AN26">
-        <v>8</v>
-      </c>
-      <c r="AO26">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="X28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="21">
+        <f>Z26/2</f>
+        <v>4</v>
+      </c>
+      <c r="AJ28">
+        <v>10</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="X29" t="s">
         <v>3</v>
       </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26">
-        <v>6</v>
-      </c>
-      <c r="AR26">
-        <v>2</v>
-      </c>
-      <c r="AS26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="AB27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD27">
-        <f>AD25-AD23+1</f>
-        <v>8</v>
-      </c>
-      <c r="AN27">
-        <v>9</v>
-      </c>
-      <c r="AO27">
-        <v>3</v>
-      </c>
-      <c r="AP27">
-        <v>2</v>
-      </c>
-      <c r="AR27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="AB28" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="21">
-        <f>AD26/2</f>
+      <c r="Z29" s="21">
+        <f>Z27/2</f>
         <v>4</v>
       </c>
-      <c r="AN28">
-        <v>10</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="AB29" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="21">
-        <f>AD27/2</f>
-        <v>4</v>
-      </c>
-      <c r="AN29">
+      <c r="AJ29">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="AN30">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AJ30">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="L31">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="H31">
         <v>174</v>
       </c>
-      <c r="AN31">
+      <c r="AJ31">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="5:47" x14ac:dyDescent="0.3">
-      <c r="L32">
-        <f>L31*3.14159/180</f>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f>H31*3.14159/180</f>
         <v>3.0368703333333333</v>
       </c>
-      <c r="AN32">
+      <c r="AJ32">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="12:40" x14ac:dyDescent="0.3">
-      <c r="L33">
-        <f>COS(L32)</f>
+    <row r="33" spans="8:36" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f>COS(H32)</f>
         <v>-0.99452162723519366</v>
       </c>
-      <c r="AN33">
+      <c r="AJ33">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="12:40" x14ac:dyDescent="0.3">
-      <c r="L34">
-        <f>SIN(L32)</f>
+    <row r="34" spans="8:36" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f>SIN(H32)</f>
         <v>0.10453101435202192</v>
       </c>
-      <c r="AN34">
+      <c r="AJ34">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="12:40" x14ac:dyDescent="0.3">
-      <c r="L35">
-        <f>57*L33+50*L34</f>
+    <row r="35" spans="8:36" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f>57*H33+50*H34</f>
         <v>-51.461182034804949</v>
       </c>
-      <c r="AN35">
+      <c r="AJ35">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="12:40" x14ac:dyDescent="0.3">
-      <c r="AN36">
+    <row r="36" spans="8:36" x14ac:dyDescent="0.3">
+      <c r="AJ36">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="12:40" x14ac:dyDescent="0.3">
-      <c r="AN37">
+    <row r="37" spans="8:36" x14ac:dyDescent="0.3">
+      <c r="AJ37">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="12:40" x14ac:dyDescent="0.3">
-      <c r="AN38">
+    <row r="38" spans="8:36" x14ac:dyDescent="0.3">
+      <c r="AJ38">
         <v>20</v>
       </c>
     </row>
